--- a/dataExcel/【AWP（StatTrak™） _ 火卫一 (略有磨损)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【AWP（StatTrak™） _ 火卫一 (略有磨损)】悠悠有品近1个月-总览.xlsx
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 16:39:25</v>
+        <v>2023-09-19 11:59:03</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C8">
-        <v>28.41</v>
+        <v>32.29</v>
       </c>
       <c r="D8">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E8">
         <v>0.01</v>
@@ -449,10 +449,10 @@
         <v>0.01</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -460,16 +460,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 21:56:41</v>
+        <v>2023-09-19 17:09:01</v>
       </c>
       <c r="B9">
-        <v>26.33</v>
+        <v>25.7</v>
       </c>
       <c r="C9">
-        <v>28.41</v>
+        <v>32.29</v>
       </c>
       <c r="D9">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E9">
         <v>0.01</v>
@@ -481,24 +481,24 @@
         <v>29</v>
       </c>
       <c r="H9">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 03:06:41</v>
+        <v>2023-09-19 22:18:26</v>
       </c>
       <c r="B10">
-        <v>26.23</v>
+        <v>25.7</v>
       </c>
       <c r="C10">
-        <v>29.71</v>
+        <v>32.29</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>0.01</v>
@@ -513,21 +513,21 @@
         <v>24.1</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 08:17:18</v>
+        <v>2023-09-20 03:29:49</v>
       </c>
       <c r="B11">
-        <v>26.23</v>
+        <v>25.7</v>
       </c>
       <c r="C11">
-        <v>29.71</v>
+        <v>32.29</v>
       </c>
       <c r="D11">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E11">
         <v>0.01</v>
@@ -536,27 +536,27 @@
         <v>0.01</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 13:27:17</v>
+        <v>2023-09-20 08:43:33</v>
       </c>
       <c r="B12">
-        <v>26.33</v>
+        <v>25.7</v>
       </c>
       <c r="C12">
-        <v>29.71</v>
+        <v>32.29</v>
       </c>
       <c r="D12">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -568,24 +568,24 @@
         <v>28</v>
       </c>
       <c r="H12">
-        <v>23.3</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 18:37:13</v>
+        <v>2023-09-20 13:50:22</v>
       </c>
       <c r="B13">
-        <v>26.03</v>
+        <v>25.5</v>
       </c>
       <c r="C13">
-        <v>29.71</v>
+        <v>32.29</v>
       </c>
       <c r="D13">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -597,24 +597,24 @@
         <v>28</v>
       </c>
       <c r="H13">
-        <v>23.3</v>
+        <v>24</v>
       </c>
       <c r="I13">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 23:49:25</v>
+        <v>2023-09-20 18:59:58</v>
       </c>
       <c r="B14">
-        <v>25.93</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>29.71</v>
+        <v>32.29</v>
       </c>
       <c r="D14">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E14">
         <v>0.01</v>
@@ -623,10 +623,10 @@
         <v>0.01</v>
       </c>
       <c r="G14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="I14">
         <v>15</v>
@@ -634,16 +634,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 04:59:41</v>
+        <v>2023-09-21 00:08:55</v>
       </c>
       <c r="B15">
-        <v>25.83</v>
+        <v>25.5</v>
       </c>
       <c r="C15">
-        <v>32.5</v>
+        <v>32.29</v>
       </c>
       <c r="D15">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>0.01</v>
@@ -652,24 +652,24 @@
         <v>0.01</v>
       </c>
       <c r="G15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 10:10:17</v>
+        <v>2023-09-21 05:19:16</v>
       </c>
       <c r="B16">
-        <v>25.83</v>
+        <v>25.5</v>
       </c>
       <c r="C16">
-        <v>32.5</v>
+        <v>32.29</v>
       </c>
       <c r="D16">
         <v>114</v>
@@ -681,27 +681,27 @@
         <v>0.01</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 15:19:13</v>
+        <v>2023-09-21 10:31:18</v>
       </c>
       <c r="B17">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C17">
-        <v>32.5</v>
+        <v>32.29</v>
       </c>
       <c r="D17">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E17">
         <v>0.01</v>
@@ -710,27 +710,27 @@
         <v>0.01</v>
       </c>
       <c r="G17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>23.5</v>
+        <v>24.1</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 20:28:11</v>
+        <v>2023-09-21 15:40:40</v>
       </c>
       <c r="B18">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="C18">
-        <v>32.5</v>
+        <v>32.29</v>
       </c>
       <c r="D18">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E18">
         <v>0.01</v>
@@ -739,27 +739,27 @@
         <v>0.01</v>
       </c>
       <c r="G18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="I18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-19 01:40:45</v>
+        <v>2023-09-21 20:49:40</v>
       </c>
       <c r="B19">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="C19">
-        <v>32.5</v>
+        <v>32.29</v>
       </c>
       <c r="D19">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E19">
         <v>0.01</v>
@@ -771,24 +771,24 @@
         <v>27</v>
       </c>
       <c r="H19">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="I19">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 06:49:40</v>
+        <v>2023-09-22 01:59:30</v>
       </c>
       <c r="B20">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>32.29</v>
       </c>
       <c r="D20">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E20">
         <v>0.01</v>
@@ -800,24 +800,24 @@
         <v>27</v>
       </c>
       <c r="H20">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="I20">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 11:59:03</v>
+        <v>2023-09-22 07:11:22</v>
       </c>
       <c r="B21">
         <v>25.9</v>
       </c>
       <c r="C21">
-        <v>32.29</v>
+        <v>30.42</v>
       </c>
       <c r="D21">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E21">
         <v>0.01</v>
@@ -826,27 +826,27 @@
         <v>0.01</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H21">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 17:09:01</v>
+        <v>2023-09-22 12:21:55</v>
       </c>
       <c r="B22">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="C22">
-        <v>32.29</v>
+        <v>30.42</v>
       </c>
       <c r="D22">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E22">
         <v>0.01</v>
@@ -855,27 +855,27 @@
         <v>0.01</v>
       </c>
       <c r="G22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="I22">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 22:18:26</v>
+        <v>2023-09-22 17:29:47</v>
       </c>
       <c r="B23">
         <v>25.7</v>
       </c>
       <c r="C23">
-        <v>32.29</v>
+        <v>30.42</v>
       </c>
       <c r="D23">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E23">
         <v>0.01</v>
@@ -884,27 +884,27 @@
         <v>0.01</v>
       </c>
       <c r="G23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H23">
         <v>24.1</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 03:29:49</v>
+        <v>2023-09-22 22:40:47</v>
       </c>
       <c r="B24">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="C24">
-        <v>32.29</v>
+        <v>30.42</v>
       </c>
       <c r="D24">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E24">
         <v>0.01</v>
@@ -913,10 +913,10 @@
         <v>0.01</v>
       </c>
       <c r="G24">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="I24">
         <v>15</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 08:43:33</v>
+        <v>2023-09-23 03:50:08</v>
       </c>
       <c r="B25">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>32.29</v>
+        <v>30.42</v>
       </c>
       <c r="D25">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E25">
         <v>0.01</v>
@@ -942,10 +942,10 @@
         <v>0.01</v>
       </c>
       <c r="G25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="I25">
         <v>15</v>
@@ -953,16 +953,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 13:50:22</v>
+        <v>2023-09-23 09:00:02</v>
       </c>
       <c r="B26">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>32.29</v>
+        <v>30.42</v>
       </c>
       <c r="D26">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E26">
         <v>0.01</v>
@@ -971,10 +971,10 @@
         <v>0.01</v>
       </c>
       <c r="G26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="I26">
         <v>15</v>
@@ -982,16 +982,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 18:59:58</v>
+        <v>2023-09-23 14:10:02</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>26.33</v>
       </c>
       <c r="C27">
-        <v>32.29</v>
+        <v>30.42</v>
       </c>
       <c r="D27">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E27">
         <v>0.01</v>
@@ -1000,10 +1000,10 @@
         <v>0.01</v>
       </c>
       <c r="G27">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H27">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="I27">
         <v>15</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-21 00:08:55</v>
+        <v>2023-09-23 19:22:48</v>
       </c>
       <c r="B28">
-        <v>25.5</v>
+        <v>26.33</v>
       </c>
       <c r="C28">
-        <v>32.29</v>
+        <v>30.42</v>
       </c>
       <c r="D28">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E28">
         <v>0.01</v>
@@ -1029,10 +1029,10 @@
         <v>0.01</v>
       </c>
       <c r="G28">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="I28">
         <v>16</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 05:19:16</v>
+        <v>2023-09-24 00:31:04</v>
       </c>
       <c r="B29">
-        <v>25.5</v>
+        <v>26.22</v>
       </c>
       <c r="C29">
-        <v>32.29</v>
+        <v>30.42</v>
       </c>
       <c r="D29">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="E29">
         <v>0.01</v>
@@ -1058,213 +1058,213 @@
         <v>0.01</v>
       </c>
       <c r="G29">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H29">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="I29">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 10:31:18</v>
+        <v>2023-09-24 05:40:20</v>
       </c>
       <c r="B30">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="C30">
-        <v>32.29</v>
+        <v>30.03</v>
       </c>
       <c r="D30">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E30">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
         <v>0.01</v>
       </c>
       <c r="G30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H30">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="I30">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 15:40:40</v>
+        <v>2023-09-24 10:50:40</v>
       </c>
       <c r="B31">
-        <v>25.4</v>
+        <v>26.22</v>
       </c>
       <c r="C31">
-        <v>32.29</v>
+        <v>30.03</v>
       </c>
       <c r="D31">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E31">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F31">
         <v>0.01</v>
       </c>
       <c r="G31">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H31">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="I31">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 20:49:40</v>
+        <v>2023-09-24 16:00:24</v>
       </c>
       <c r="B32">
-        <v>25.4</v>
+        <v>26.33</v>
       </c>
       <c r="C32">
-        <v>32.29</v>
+        <v>30.03</v>
       </c>
       <c r="D32">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E32">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
         <v>0.01</v>
       </c>
       <c r="G32">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="I32">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-22 01:59:30</v>
+        <v>2023-09-24 21:11:54</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>26.99</v>
       </c>
       <c r="C33">
-        <v>32.29</v>
+        <v>30.03</v>
       </c>
       <c r="D33">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
         <v>0.01</v>
       </c>
       <c r="G33">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H33">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="I33">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 07:11:22</v>
+        <v>2023-09-25 02:23:22</v>
       </c>
       <c r="B34">
-        <v>25.9</v>
+        <v>26.8</v>
       </c>
       <c r="C34">
-        <v>30.42</v>
+        <v>30.03</v>
       </c>
       <c r="D34">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E34">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F34">
         <v>0.01</v>
       </c>
       <c r="G34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="I34">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 12:21:55</v>
+        <v>2023-09-25 07:30:42</v>
       </c>
       <c r="B35">
-        <v>25.9</v>
+        <v>26.8</v>
       </c>
       <c r="C35">
-        <v>30.42</v>
+        <v>30.03</v>
       </c>
       <c r="D35">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
         <v>0.01</v>
       </c>
       <c r="G35">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H35">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="I35">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 17:29:47</v>
+        <v>2023-09-25 12:42:42</v>
       </c>
       <c r="B36">
-        <v>25.7</v>
+        <v>26.8</v>
       </c>
       <c r="C36">
-        <v>30.42</v>
+        <v>30.03</v>
       </c>
       <c r="D36">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
         <v>0.01</v>
       </c>
       <c r="G36">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H36">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="I36">
         <v>15</v>
@@ -1272,54 +1272,54 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 22:40:47</v>
+        <v>2023-09-25 17:52:28</v>
       </c>
       <c r="B37">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="C37">
-        <v>30.42</v>
+        <v>30.03</v>
       </c>
       <c r="D37">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E37">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
         <v>0.01</v>
       </c>
       <c r="G37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="I37">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 03:50:08</v>
+        <v>2023-09-25 23:01:00</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="C38">
-        <v>30.42</v>
+        <v>30.03</v>
       </c>
       <c r="D38">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F38">
         <v>0.01</v>
       </c>
       <c r="G38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38">
         <v>24.1</v>
@@ -1330,28 +1330,28 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 09:00:02</v>
+        <v>2023-09-26 04:13:14</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="C39">
-        <v>30.42</v>
+        <v>30.03</v>
       </c>
       <c r="D39">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E39">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F39">
         <v>0.01</v>
       </c>
       <c r="G39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H39">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="I39">
         <v>15</v>
@@ -1359,19 +1359,19 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 14:10:02</v>
+        <v>2023-09-26 09:22:40</v>
       </c>
       <c r="B40">
-        <v>26.33</v>
+        <v>26.4</v>
       </c>
       <c r="C40">
-        <v>30.42</v>
+        <v>30.03</v>
       </c>
       <c r="D40">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
         <v>0.01</v>
@@ -1380,36 +1380,36 @@
         <v>24</v>
       </c>
       <c r="H40">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="I40">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 19:22:48</v>
+        <v>2023-09-26 14:32:06</v>
       </c>
       <c r="B41">
-        <v>26.33</v>
+        <v>26.4</v>
       </c>
       <c r="C41">
-        <v>30.42</v>
+        <v>30.03</v>
       </c>
       <c r="D41">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E41">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F41">
         <v>0.01</v>
       </c>
       <c r="G41">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H41">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="I41">
         <v>16</v>
@@ -1417,19 +1417,19 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-24 00:31:04</v>
+        <v>2023-09-26 19:43:21</v>
       </c>
       <c r="B42">
-        <v>26.22</v>
+        <v>26.68</v>
       </c>
       <c r="C42">
-        <v>30.42</v>
+        <v>30.03</v>
       </c>
       <c r="D42">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="E42">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
         <v>0.01</v>
@@ -1438,181 +1438,181 @@
         <v>26</v>
       </c>
       <c r="H42">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="I42">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 05:40:20</v>
+        <v>2023-09-27 00:52:06</v>
       </c>
       <c r="B43">
-        <v>25.9</v>
+        <v>26.68</v>
       </c>
       <c r="C43">
         <v>30.03</v>
       </c>
       <c r="D43">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F43">
         <v>0.01</v>
       </c>
       <c r="G43">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H43">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="I43">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 10:50:40</v>
+        <v>2023-09-27 06:01:44</v>
       </c>
       <c r="B44">
-        <v>26.22</v>
+        <v>26.68</v>
       </c>
       <c r="C44">
         <v>30.03</v>
       </c>
       <c r="D44">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F44">
         <v>0.01</v>
       </c>
       <c r="G44">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H44">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="I44">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 16:00:24</v>
+        <v>2023-09-27 11:13:53</v>
       </c>
       <c r="B45">
-        <v>26.33</v>
+        <v>26.68</v>
       </c>
       <c r="C45">
         <v>30.03</v>
       </c>
       <c r="D45">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E45">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
         <v>0.01</v>
       </c>
       <c r="G45">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H45">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="I45">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 21:11:54</v>
+        <v>2023-09-27 16:22:54</v>
       </c>
       <c r="B46">
-        <v>26.99</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>30.03</v>
       </c>
       <c r="D46">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E46">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F46">
         <v>0.01</v>
       </c>
       <c r="G46">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H46">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="I46">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-25 02:23:22</v>
+        <v>2023-09-27 21:31:58</v>
       </c>
       <c r="B47">
-        <v>26.8</v>
+        <v>26.48</v>
       </c>
       <c r="C47">
         <v>30.03</v>
       </c>
       <c r="D47">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E47">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F47">
         <v>0.01</v>
       </c>
       <c r="G47">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H47">
-        <v>23.7</v>
+        <v>24.5</v>
       </c>
       <c r="I47">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 07:30:42</v>
+        <v>2023-09-28 02:42:12</v>
       </c>
       <c r="B48">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="C48">
-        <v>30.03</v>
+        <v>32.5</v>
       </c>
       <c r="D48">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F48">
         <v>0.01</v>
       </c>
       <c r="G48">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H48">
-        <v>23.7</v>
+        <v>24.5</v>
       </c>
       <c r="I48">
         <v>15</v>
@@ -1620,219 +1620,219 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 12:42:42</v>
+        <v>2023-09-28 07:52:05</v>
       </c>
       <c r="B49">
-        <v>26.8</v>
+        <v>26.2</v>
       </c>
       <c r="C49">
-        <v>30.03</v>
+        <v>32.5</v>
       </c>
       <c r="D49">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F49">
         <v>0.01</v>
       </c>
       <c r="G49">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H49">
-        <v>23.7</v>
+        <v>24.5</v>
       </c>
       <c r="I49">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 17:52:28</v>
+        <v>2023-09-28 13:04:33</v>
       </c>
       <c r="B50">
-        <v>26.5</v>
+        <v>24</v>
       </c>
       <c r="C50">
-        <v>30.03</v>
+        <v>32.5</v>
       </c>
       <c r="D50">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E50">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F50">
         <v>0.01</v>
       </c>
       <c r="G50">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H50">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="I50">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 23:01:00</v>
+        <v>2023-09-28 18:14:58</v>
       </c>
       <c r="B51">
-        <v>26.4</v>
+        <v>23.3</v>
       </c>
       <c r="C51">
-        <v>30.03</v>
+        <v>32.5</v>
       </c>
       <c r="D51">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E51">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F51">
         <v>0.01</v>
       </c>
       <c r="G51">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H51">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="I51">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 04:13:14</v>
+        <v>2023-09-28 23:22:21</v>
       </c>
       <c r="B52">
-        <v>26.5</v>
+        <v>23.3</v>
       </c>
       <c r="C52">
-        <v>30.03</v>
+        <v>32.5</v>
       </c>
       <c r="D52">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F52">
         <v>0.01</v>
       </c>
       <c r="G52">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>24.2</v>
+        <v>23</v>
       </c>
       <c r="I52">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 09:22:40</v>
+        <v>2023-09-29 04:32:36</v>
       </c>
       <c r="B53">
-        <v>26.4</v>
+        <v>23.3</v>
       </c>
       <c r="C53">
-        <v>30.03</v>
+        <v>31.98</v>
       </c>
       <c r="D53">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E53">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F53">
         <v>0.01</v>
       </c>
       <c r="G53">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="I53">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 14:32:06</v>
+        <v>2023-09-29 09:43:46</v>
       </c>
       <c r="B54">
-        <v>26.4</v>
+        <v>23.3</v>
       </c>
       <c r="C54">
-        <v>30.03</v>
+        <v>31.98</v>
       </c>
       <c r="D54">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E54">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
         <v>0.01</v>
       </c>
       <c r="G54">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H54">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="I54">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 19:43:21</v>
+        <v>2023-09-29 14:53:12</v>
       </c>
       <c r="B55">
-        <v>26.68</v>
+        <v>23.2</v>
       </c>
       <c r="C55">
-        <v>30.03</v>
+        <v>31.98</v>
       </c>
       <c r="D55">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F55">
         <v>0.01</v>
       </c>
       <c r="G55">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>24.6</v>
+        <v>19.8</v>
       </c>
       <c r="I55">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-27 00:52:06</v>
+        <v>2023-09-29 20:02:47</v>
       </c>
       <c r="B56">
-        <v>26.68</v>
+        <v>23.2</v>
       </c>
       <c r="C56">
-        <v>30.03</v>
+        <v>31.98</v>
       </c>
       <c r="D56">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E56">
         <v>0.01</v>
@@ -1841,27 +1841,27 @@
         <v>0.01</v>
       </c>
       <c r="G56">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>24.5</v>
+        <v>19.2</v>
       </c>
       <c r="I56">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-27 06:01:44</v>
+        <v>2023-09-30 01:07:25</v>
       </c>
       <c r="B57">
-        <v>26.68</v>
+        <v>23.2</v>
       </c>
       <c r="C57">
-        <v>30.03</v>
+        <v>31.98</v>
       </c>
       <c r="D57">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E57">
         <v>0.01</v>
@@ -1870,27 +1870,27 @@
         <v>0.01</v>
       </c>
       <c r="G57">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>24.5</v>
+        <v>19.2</v>
       </c>
       <c r="I57">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 11:13:53</v>
+        <v>2023-09-30 06:17:28</v>
       </c>
       <c r="B58">
-        <v>26.68</v>
+        <v>23.2</v>
       </c>
       <c r="C58">
-        <v>30.03</v>
+        <v>31.98</v>
       </c>
       <c r="D58">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E58">
         <v>0.01</v>
@@ -1899,27 +1899,27 @@
         <v>0.01</v>
       </c>
       <c r="G58">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>24.5</v>
+        <v>19.3</v>
       </c>
       <c r="I58">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 16:22:54</v>
+        <v>2023-09-30 11:27:21</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>23.1</v>
       </c>
       <c r="C59">
-        <v>30.03</v>
+        <v>31.98</v>
       </c>
       <c r="D59">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E59">
         <v>0.01</v>
@@ -1928,27 +1928,27 @@
         <v>0.01</v>
       </c>
       <c r="G59">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>24.6</v>
+        <v>19.3</v>
       </c>
       <c r="I59">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 21:31:58</v>
+        <v>2023-09-30 16:38:59</v>
       </c>
       <c r="B60">
-        <v>26.48</v>
+        <v>22.9</v>
       </c>
       <c r="C60">
-        <v>30.03</v>
+        <v>31.98</v>
       </c>
       <c r="D60">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E60">
         <v>0.01</v>
@@ -1957,27 +1957,27 @@
         <v>0.01</v>
       </c>
       <c r="G60">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>24.5</v>
+        <v>19.39</v>
       </c>
       <c r="I60">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-28 02:42:12</v>
+        <v>2023-09-30 21:47:28</v>
       </c>
       <c r="B61">
-        <v>26.3</v>
+        <v>22.7</v>
       </c>
       <c r="C61">
-        <v>32.5</v>
+        <v>31.98</v>
       </c>
       <c r="D61">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E61">
         <v>0.01</v>
@@ -1986,27 +1986,27 @@
         <v>0.01</v>
       </c>
       <c r="G61">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H61">
-        <v>24.5</v>
+        <v>19.39</v>
       </c>
       <c r="I61">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 07:52:05</v>
+        <v>2023-10-01 02:58:11</v>
       </c>
       <c r="B62">
-        <v>26.2</v>
+        <v>22.6</v>
       </c>
       <c r="C62">
         <v>32.5</v>
       </c>
       <c r="D62">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E62">
         <v>0.01</v>
@@ -2015,27 +2015,27 @@
         <v>0.01</v>
       </c>
       <c r="G62">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>24.5</v>
+        <v>19.39</v>
       </c>
       <c r="I62">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 13:04:33</v>
+        <v>2023-10-01 08:07:56</v>
       </c>
       <c r="B63">
-        <v>24</v>
+        <v>22.6</v>
       </c>
       <c r="C63">
         <v>32.5</v>
       </c>
       <c r="D63">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E63">
         <v>0.01</v>
@@ -2044,27 +2044,27 @@
         <v>0.01</v>
       </c>
       <c r="G63">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>24.3</v>
+        <v>19.39</v>
       </c>
       <c r="I63">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 18:14:58</v>
+        <v>2023-10-01 13:17:42</v>
       </c>
       <c r="B64">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
       <c r="C64">
         <v>32.5</v>
       </c>
       <c r="D64">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E64">
         <v>0.01</v>
@@ -2073,21 +2073,21 @@
         <v>0.01</v>
       </c>
       <c r="G64">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>24.2</v>
+        <v>19.5</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 23:22:21</v>
+        <v>2023-10-01 18:28:28</v>
       </c>
       <c r="B65">
-        <v>23.3</v>
+        <v>22.7</v>
       </c>
       <c r="C65">
         <v>32.5</v>
@@ -2105,24 +2105,24 @@
         <v>29</v>
       </c>
       <c r="H65">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="I65">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-29 04:32:36</v>
+        <v>2023-10-01 23:37:49</v>
       </c>
       <c r="B66">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>31.98</v>
+        <v>32.5</v>
       </c>
       <c r="D66">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E66">
         <v>0.01</v>
@@ -2134,24 +2134,24 @@
         <v>29</v>
       </c>
       <c r="H66">
-        <v>23</v>
+        <v>19.6</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 09:43:46</v>
+        <v>2023-10-02 04:48:53</v>
       </c>
       <c r="B67">
-        <v>23.3</v>
+        <v>22.7</v>
       </c>
       <c r="C67">
-        <v>31.98</v>
+        <v>31.85</v>
       </c>
       <c r="D67">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E67">
         <v>0.01</v>
@@ -2160,27 +2160,27 @@
         <v>0.01</v>
       </c>
       <c r="G67">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>23</v>
+        <v>19.6</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 14:53:12</v>
+        <v>2023-10-02 09:59:05</v>
       </c>
       <c r="B68">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="C68">
-        <v>31.98</v>
+        <v>31.85</v>
       </c>
       <c r="D68">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E68">
         <v>0.01</v>
@@ -2189,27 +2189,27 @@
         <v>0.01</v>
       </c>
       <c r="G68">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-29 20:02:47</v>
+        <v>2023-10-02 15:08:04</v>
       </c>
       <c r="B69">
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="C69">
-        <v>31.98</v>
+        <v>31.85</v>
       </c>
       <c r="D69">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E69">
         <v>0.01</v>
@@ -2218,27 +2218,27 @@
         <v>0.01</v>
       </c>
       <c r="G69">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-30 01:07:25</v>
+        <v>2023-10-02 20:18:35</v>
       </c>
       <c r="B70">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="C70">
-        <v>31.98</v>
+        <v>31.85</v>
       </c>
       <c r="D70">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E70">
         <v>0.01</v>
@@ -2247,27 +2247,27 @@
         <v>0.01</v>
       </c>
       <c r="G70">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>19.2</v>
+        <v>19.89</v>
       </c>
       <c r="I70">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-30 06:17:28</v>
+        <v>2023-10-03 01:29:48</v>
       </c>
       <c r="B71">
-        <v>23.2</v>
+        <v>26.3</v>
       </c>
       <c r="C71">
-        <v>31.98</v>
+        <v>31.85</v>
       </c>
       <c r="D71">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E71">
         <v>0.01</v>
@@ -2279,24 +2279,24 @@
         <v>30</v>
       </c>
       <c r="H71">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="I71">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 11:27:21</v>
+        <v>2023-10-03 06:38:20</v>
       </c>
       <c r="B72">
-        <v>23.1</v>
+        <v>26</v>
       </c>
       <c r="C72">
-        <v>31.98</v>
+        <v>32.89</v>
       </c>
       <c r="D72">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E72">
         <v>0.01</v>
@@ -2308,24 +2308,24 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>19.3</v>
+        <v>20.1</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 16:38:59</v>
+        <v>2023-10-03 11:43:08</v>
       </c>
       <c r="B73">
-        <v>22.9</v>
+        <v>25.6</v>
       </c>
       <c r="C73">
-        <v>31.98</v>
+        <v>32.89</v>
       </c>
       <c r="D73">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E73">
         <v>0.01</v>
@@ -2334,27 +2334,27 @@
         <v>0.01</v>
       </c>
       <c r="G73">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>19.39</v>
+        <v>20.1</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-30 21:47:28</v>
+        <v>2023-10-03 16:55:10</v>
       </c>
       <c r="B74">
-        <v>22.7</v>
+        <v>25.8</v>
       </c>
       <c r="C74">
-        <v>31.98</v>
+        <v>32.89</v>
       </c>
       <c r="D74">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E74">
         <v>0.01</v>
@@ -2363,27 +2363,27 @@
         <v>0.01</v>
       </c>
       <c r="G74">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>19.39</v>
+        <v>21</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-10-01 02:58:11</v>
+        <v>2023-10-03 22:03:19</v>
       </c>
       <c r="B75">
-        <v>22.6</v>
+        <v>25.8</v>
       </c>
       <c r="C75">
-        <v>32.5</v>
+        <v>32.89</v>
       </c>
       <c r="D75">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E75">
         <v>0.01</v>
@@ -2392,27 +2392,27 @@
         <v>0.01</v>
       </c>
       <c r="G75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>19.39</v>
+        <v>20.2</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 08:07:56</v>
+        <v>2023-10-04 03:13:18</v>
       </c>
       <c r="B76">
-        <v>22.6</v>
+        <v>25.8</v>
       </c>
       <c r="C76">
-        <v>32.5</v>
+        <v>32.89</v>
       </c>
       <c r="D76">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E76">
         <v>0.01</v>
@@ -2424,24 +2424,24 @@
         <v>30</v>
       </c>
       <c r="H76">
-        <v>19.39</v>
+        <v>20.2</v>
       </c>
       <c r="I76">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 13:17:42</v>
+        <v>2023-10-04 08:23:18</v>
       </c>
       <c r="B77">
-        <v>22.6</v>
+        <v>25.9</v>
       </c>
       <c r="C77">
-        <v>32.5</v>
+        <v>32.89</v>
       </c>
       <c r="D77">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>0.01</v>
@@ -2450,27 +2450,27 @@
         <v>0.01</v>
       </c>
       <c r="G77">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>19.5</v>
+        <v>20.3</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 18:28:28</v>
+        <v>2023-10-04 13:33:18</v>
       </c>
       <c r="B78">
-        <v>22.7</v>
+        <v>25.7</v>
       </c>
       <c r="C78">
-        <v>32.5</v>
+        <v>32.89</v>
       </c>
       <c r="D78">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>0.01</v>
@@ -2479,27 +2479,27 @@
         <v>0.01</v>
       </c>
       <c r="G78">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>19.5</v>
+        <v>20.2</v>
       </c>
       <c r="I78">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-01 23:37:49</v>
+        <v>2023-10-04 18:43:18</v>
       </c>
       <c r="B79">
-        <v>23</v>
+        <v>25.8</v>
       </c>
       <c r="C79">
-        <v>32.5</v>
+        <v>32.89</v>
       </c>
       <c r="D79">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E79">
         <v>0.01</v>
@@ -2508,27 +2508,27 @@
         <v>0.01</v>
       </c>
       <c r="G79">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>19.6</v>
+        <v>20.3</v>
       </c>
       <c r="I79">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-02 04:48:53</v>
+        <v>2023-10-04 23:55:02</v>
       </c>
       <c r="B80">
-        <v>22.7</v>
+        <v>25.6</v>
       </c>
       <c r="C80">
-        <v>31.85</v>
+        <v>32.89</v>
       </c>
       <c r="D80">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E80">
         <v>0.01</v>
@@ -2540,24 +2540,24 @@
         <v>30</v>
       </c>
       <c r="H80">
-        <v>19.6</v>
+        <v>20.3</v>
       </c>
       <c r="I80">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 09:59:05</v>
+        <v>2023-10-05 05:05:46</v>
       </c>
       <c r="B81">
-        <v>22.7</v>
+        <v>25.6</v>
       </c>
       <c r="C81">
-        <v>31.85</v>
+        <v>34.11</v>
       </c>
       <c r="D81">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>0.01</v>
@@ -2566,27 +2566,27 @@
         <v>0.01</v>
       </c>
       <c r="G81">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>19.6</v>
+        <v>20.7</v>
       </c>
       <c r="I81">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 15:08:04</v>
+        <v>2023-10-05 10:13:55</v>
       </c>
       <c r="B82">
-        <v>22.8</v>
+        <v>25.6</v>
       </c>
       <c r="C82">
-        <v>31.85</v>
+        <v>34.11</v>
       </c>
       <c r="D82">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E82">
         <v>0.01</v>
@@ -2595,27 +2595,27 @@
         <v>0.01</v>
       </c>
       <c r="G82">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="I82">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-02 20:18:35</v>
+        <v>2023-10-05 15:23:41</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>25.6</v>
       </c>
       <c r="C83">
-        <v>31.85</v>
+        <v>34.11</v>
       </c>
       <c r="D83">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E83">
         <v>0.01</v>
@@ -2624,27 +2624,27 @@
         <v>0.01</v>
       </c>
       <c r="G83">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>19.89</v>
+        <v>21.1</v>
       </c>
       <c r="I83">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-03 01:29:48</v>
+        <v>2023-10-05 20:35:11</v>
       </c>
       <c r="B84">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="C84">
-        <v>31.85</v>
+        <v>34.11</v>
       </c>
       <c r="D84">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E84">
         <v>0.01</v>
@@ -2656,7 +2656,7 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>20</v>
+        <v>20.9</v>
       </c>
       <c r="I84">
         <v>12</v>
@@ -2664,16 +2664,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-03 06:38:20</v>
+        <v>2023-10-06 01:44:13</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C85">
-        <v>32.89</v>
+        <v>34.11</v>
       </c>
       <c r="D85">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E85">
         <v>0.01</v>
@@ -2685,24 +2685,24 @@
         <v>30</v>
       </c>
       <c r="H85">
-        <v>20.1</v>
+        <v>20.9</v>
       </c>
       <c r="I85">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 11:43:08</v>
+        <v>2023-10-06 06:53:34</v>
       </c>
       <c r="B86">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="C86">
-        <v>32.89</v>
+        <v>33.02</v>
       </c>
       <c r="D86">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E86">
         <v>0.01</v>
@@ -2714,24 +2714,24 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>20.1</v>
+        <v>21</v>
       </c>
       <c r="I86">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 16:55:10</v>
+        <v>2023-10-06 12:04:26</v>
       </c>
       <c r="B87">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="C87">
-        <v>32.89</v>
+        <v>33.02</v>
       </c>
       <c r="D87">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E87">
         <v>0.01</v>
@@ -2743,7 +2743,7 @@
         <v>30</v>
       </c>
       <c r="H87">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="I87">
         <v>12</v>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-03 22:03:19</v>
+        <v>2023-10-06 17:13:41</v>
       </c>
       <c r="B88">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="C88">
-        <v>32.89</v>
+        <v>33.02</v>
       </c>
       <c r="D88">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E88">
         <v>0.01</v>
@@ -2772,24 +2772,24 @@
         <v>30</v>
       </c>
       <c r="H88">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="I88">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-04 03:13:18</v>
+        <v>2023-10-06 22:23:41</v>
       </c>
       <c r="B89">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="C89">
-        <v>32.89</v>
+        <v>33.02</v>
       </c>
       <c r="D89">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E89">
         <v>0.01</v>
@@ -2801,24 +2801,24 @@
         <v>30</v>
       </c>
       <c r="H89">
-        <v>20.2</v>
+        <v>21.7</v>
       </c>
       <c r="I89">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 08:23:18</v>
+        <v>2023-10-07 03:33:41</v>
       </c>
       <c r="B90">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="C90">
-        <v>32.89</v>
+        <v>36.47</v>
       </c>
       <c r="D90">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90">
         <v>0.01</v>
@@ -2830,24 +2830,24 @@
         <v>30</v>
       </c>
       <c r="H90">
-        <v>20.3</v>
+        <v>21.9</v>
       </c>
       <c r="I90">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 13:33:18</v>
+        <v>2023-10-07 08:43:41</v>
       </c>
       <c r="B91">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="C91">
-        <v>32.89</v>
+        <v>36.47</v>
       </c>
       <c r="D91">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91">
         <v>0.01</v>
@@ -2859,24 +2859,24 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>20.2</v>
+        <v>21.9</v>
       </c>
       <c r="I91">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 18:43:18</v>
+        <v>2023-10-07 13:53:41</v>
       </c>
       <c r="B92">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="C92">
-        <v>32.89</v>
+        <v>36.47</v>
       </c>
       <c r="D92">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E92">
         <v>0.01</v>
@@ -2888,24 +2888,24 @@
         <v>30</v>
       </c>
       <c r="H92">
-        <v>20.3</v>
+        <v>22</v>
       </c>
       <c r="I92">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-04 23:55:02</v>
+        <v>2023-10-07 19:03:41</v>
       </c>
       <c r="B93">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="C93">
-        <v>32.89</v>
+        <v>36.47</v>
       </c>
       <c r="D93">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E93">
         <v>0.01</v>
@@ -2917,24 +2917,24 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>20.3</v>
+        <v>22.1</v>
       </c>
       <c r="I93">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-05 05:05:46</v>
+        <v>2023-10-08 00:13:49</v>
       </c>
       <c r="B94">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="C94">
-        <v>34.11</v>
+        <v>36.47</v>
       </c>
       <c r="D94">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E94">
         <v>0.01</v>
@@ -2943,24 +2943,24 @@
         <v>0.01</v>
       </c>
       <c r="G94">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
-        <v>20.7</v>
+        <v>22.1</v>
       </c>
       <c r="I94">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 10:13:55</v>
+        <v>2023-10-08 05:23:49</v>
       </c>
       <c r="B95">
         <v>25.6</v>
       </c>
       <c r="C95">
-        <v>34.11</v>
+        <v>35.29</v>
       </c>
       <c r="D95">
         <v>117</v>
@@ -2972,24 +2972,24 @@
         <v>0.01</v>
       </c>
       <c r="G95">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>20.7</v>
+        <v>22.5</v>
       </c>
       <c r="I95">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 15:23:41</v>
+        <v>2023-10-08 10:33:59</v>
       </c>
       <c r="B96">
         <v>25.6</v>
       </c>
       <c r="C96">
-        <v>34.11</v>
+        <v>35.29</v>
       </c>
       <c r="D96">
         <v>116</v>
@@ -3001,27 +3001,27 @@
         <v>0.01</v>
       </c>
       <c r="G96">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>21.1</v>
+        <v>22.6</v>
       </c>
       <c r="I96">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-05 20:35:11</v>
+        <v>2023-10-08 15:46:04</v>
       </c>
       <c r="B97">
-        <v>25.6</v>
+        <v>25.78</v>
       </c>
       <c r="C97">
-        <v>34.11</v>
+        <v>35.29</v>
       </c>
       <c r="D97">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E97">
         <v>0.01</v>
@@ -3030,27 +3030,27 @@
         <v>0.01</v>
       </c>
       <c r="G97">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H97">
-        <v>20.9</v>
+        <v>22.8</v>
       </c>
       <c r="I97">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-06 01:44:13</v>
+        <v>2023-10-08 20:55:12</v>
       </c>
       <c r="B98">
-        <v>25</v>
+        <v>25.68</v>
       </c>
       <c r="C98">
-        <v>34.11</v>
+        <v>35.29</v>
       </c>
       <c r="D98">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E98">
         <v>0.01</v>
@@ -3059,27 +3059,27 @@
         <v>0.01</v>
       </c>
       <c r="G98">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H98">
-        <v>20.9</v>
+        <v>22.8</v>
       </c>
       <c r="I98">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 06:53:34</v>
+        <v>2023-10-09 02:04:24</v>
       </c>
       <c r="B99">
         <v>25</v>
       </c>
       <c r="C99">
-        <v>33.02</v>
+        <v>33.86</v>
       </c>
       <c r="D99">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E99">
         <v>0.01</v>
@@ -3088,27 +3088,27 @@
         <v>0.01</v>
       </c>
       <c r="G99">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H99">
-        <v>21</v>
+        <v>22.8</v>
       </c>
       <c r="I99">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 12:04:26</v>
+        <v>2023-10-09 07:14:10</v>
       </c>
       <c r="B100">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="C100">
-        <v>33.02</v>
+        <v>33.86</v>
       </c>
       <c r="D100">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E100">
         <v>0.01</v>
@@ -3117,27 +3117,27 @@
         <v>0.01</v>
       </c>
       <c r="G100">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H100">
-        <v>21.4</v>
+        <v>22.8</v>
       </c>
       <c r="I100">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 17:13:41</v>
+        <v>2023-10-09 12:24:09</v>
       </c>
       <c r="B101">
-        <v>25.4</v>
+        <v>24</v>
       </c>
       <c r="C101">
-        <v>33.02</v>
+        <v>33.86</v>
       </c>
       <c r="D101">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E101">
         <v>0.01</v>
@@ -3146,27 +3146,27 @@
         <v>0.01</v>
       </c>
       <c r="G101">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H101">
-        <v>21.5</v>
+        <v>22.8</v>
       </c>
       <c r="I101">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-06 22:23:41</v>
+        <v>2023-10-09 17:34:09</v>
       </c>
       <c r="B102">
-        <v>25.4</v>
+        <v>24</v>
       </c>
       <c r="C102">
-        <v>33.02</v>
+        <v>33.86</v>
       </c>
       <c r="D102">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E102">
         <v>0.01</v>
@@ -3175,27 +3175,27 @@
         <v>0.01</v>
       </c>
       <c r="G102">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>21.7</v>
+        <v>22.8</v>
       </c>
       <c r="I102">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-07 03:33:41</v>
+        <v>2023-10-09 22:44:09</v>
       </c>
       <c r="B103">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="C103">
-        <v>36.47</v>
+        <v>33.86</v>
       </c>
       <c r="D103">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E103">
         <v>0.01</v>
@@ -3204,10 +3204,10 @@
         <v>0.01</v>
       </c>
       <c r="G103">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>21.9</v>
+        <v>22.8</v>
       </c>
       <c r="I103">
         <v>19</v>
@@ -3215,16 +3215,16 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-07 08:43:41</v>
+        <v>2023-10-10 03:54:35</v>
       </c>
       <c r="B104">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="C104">
-        <v>36.47</v>
+        <v>36.4</v>
       </c>
       <c r="D104">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E104">
         <v>0.01</v>
@@ -3233,27 +3233,27 @@
         <v>0.01</v>
       </c>
       <c r="G104">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="I104">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 13:53:41</v>
+        <v>2023-10-10 09:04:29</v>
       </c>
       <c r="B105">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="C105">
-        <v>36.47</v>
+        <v>36.4</v>
       </c>
       <c r="D105">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E105">
         <v>0.01</v>
@@ -3262,10 +3262,10 @@
         <v>0.01</v>
       </c>
       <c r="G105">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H105">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I105">
         <v>19</v>
@@ -3273,16 +3273,16 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-07 19:03:41</v>
+        <v>2023-10-10 14:14:24</v>
       </c>
       <c r="B106">
         <v>25</v>
       </c>
       <c r="C106">
-        <v>36.47</v>
+        <v>36.4</v>
       </c>
       <c r="D106">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E106">
         <v>0.01</v>
@@ -3291,10 +3291,10 @@
         <v>0.01</v>
       </c>
       <c r="G106">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>22.1</v>
+        <v>23.1</v>
       </c>
       <c r="I106">
         <v>18</v>
@@ -3302,13 +3302,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-08 00:13:49</v>
+        <v>2023-10-10 19:24:24</v>
       </c>
       <c r="B107">
         <v>25</v>
       </c>
       <c r="C107">
-        <v>36.47</v>
+        <v>36.4</v>
       </c>
       <c r="D107">
         <v>118</v>
@@ -3320,10 +3320,10 @@
         <v>0.01</v>
       </c>
       <c r="G107">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H107">
-        <v>22.1</v>
+        <v>23</v>
       </c>
       <c r="I107">
         <v>17</v>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-08 05:23:49</v>
+        <v>2023-10-11 00:34:32</v>
       </c>
       <c r="B108">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="C108">
-        <v>35.29</v>
+        <v>36.4</v>
       </c>
       <c r="D108">
         <v>117</v>
@@ -3349,10 +3349,10 @@
         <v>0.01</v>
       </c>
       <c r="G108">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H108">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="I108">
         <v>16</v>
@@ -3360,13 +3360,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 10:33:59</v>
+        <v>2023-10-11 05:45:56</v>
       </c>
       <c r="B109">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="C109">
-        <v>35.29</v>
+        <v>36.4</v>
       </c>
       <c r="D109">
         <v>116</v>
@@ -3378,27 +3378,27 @@
         <v>0.01</v>
       </c>
       <c r="G109">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H109">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="I109">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 15:46:04</v>
+        <v>2023-10-11 10:54:40</v>
       </c>
       <c r="B110">
-        <v>25.78</v>
+        <v>25</v>
       </c>
       <c r="C110">
-        <v>35.29</v>
+        <v>36.4</v>
       </c>
       <c r="D110">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E110">
         <v>0.01</v>
@@ -3410,24 +3410,24 @@
         <v>28</v>
       </c>
       <c r="H110">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="I110">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-08 20:55:12</v>
+        <v>2023-10-11 16:04:39</v>
       </c>
       <c r="B111">
-        <v>25.68</v>
+        <v>25</v>
       </c>
       <c r="C111">
-        <v>35.29</v>
+        <v>36.4</v>
       </c>
       <c r="D111">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E111">
         <v>0.01</v>
@@ -3439,24 +3439,24 @@
         <v>28</v>
       </c>
       <c r="H111">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="I111">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-09 02:04:24</v>
+        <v>2023-10-11 21:14:40</v>
       </c>
       <c r="B112">
         <v>25</v>
       </c>
       <c r="C112">
-        <v>33.86</v>
+        <v>36.4</v>
       </c>
       <c r="D112">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E112">
         <v>0.01</v>
@@ -3465,27 +3465,27 @@
         <v>0.01</v>
       </c>
       <c r="G112">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="I112">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-09 07:14:10</v>
+        <v>2023-10-12 02:27:06</v>
       </c>
       <c r="B113">
         <v>25</v>
       </c>
       <c r="C113">
-        <v>33.86</v>
+        <v>34.52</v>
       </c>
       <c r="D113">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E113">
         <v>0.01</v>
@@ -3494,27 +3494,27 @@
         <v>0.01</v>
       </c>
       <c r="G113">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>22.8</v>
+        <v>23.7</v>
       </c>
       <c r="I113">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 12:24:09</v>
+        <v>2023-10-12 07:34:45</v>
       </c>
       <c r="B114">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C114">
-        <v>33.86</v>
+        <v>34.52</v>
       </c>
       <c r="D114">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E114">
         <v>0.01</v>
@@ -3523,24 +3523,24 @@
         <v>0.01</v>
       </c>
       <c r="G114">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>22.8</v>
+        <v>23.7</v>
       </c>
       <c r="I114">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 17:34:09</v>
+        <v>2023-10-12 12:44:45</v>
       </c>
       <c r="B115">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C115">
-        <v>33.86</v>
+        <v>34.52</v>
       </c>
       <c r="D115">
         <v>122</v>
@@ -3552,27 +3552,27 @@
         <v>0.01</v>
       </c>
       <c r="G115">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>22.8</v>
+        <v>23.7</v>
       </c>
       <c r="I115">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-09 22:44:09</v>
+        <v>2023-10-12 17:54:45</v>
       </c>
       <c r="B116">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C116">
-        <v>33.86</v>
+        <v>34.52</v>
       </c>
       <c r="D116">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E116">
         <v>0.01</v>
@@ -3581,27 +3581,27 @@
         <v>0.01</v>
       </c>
       <c r="G116">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H116">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="I116">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-10 03:54:35</v>
+        <v>2023-10-12 23:04:43</v>
       </c>
       <c r="B117">
         <v>25</v>
       </c>
       <c r="C117">
-        <v>36.4</v>
+        <v>34.52</v>
       </c>
       <c r="D117">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E117">
         <v>0.01</v>
@@ -3613,24 +3613,24 @@
         <v>29</v>
       </c>
       <c r="H117">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="I117">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-10 09:04:29</v>
+        <v>2023-10-13 04:14:58</v>
       </c>
       <c r="B118">
         <v>25</v>
       </c>
       <c r="C118">
-        <v>36.4</v>
+        <v>34.52</v>
       </c>
       <c r="D118">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E118">
         <v>0.01</v>
@@ -3642,24 +3642,24 @@
         <v>29</v>
       </c>
       <c r="H118">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="I118">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 14:14:24</v>
+        <v>2023-10-13 09:25:02</v>
       </c>
       <c r="B119">
         <v>25</v>
       </c>
       <c r="C119">
-        <v>36.4</v>
+        <v>34.52</v>
       </c>
       <c r="D119">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E119">
         <v>0.01</v>
@@ -3668,10 +3668,10 @@
         <v>0.01</v>
       </c>
       <c r="G119">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="I119">
         <v>18</v>
@@ -3679,16 +3679,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-10 19:24:24</v>
+        <v>2023-10-13 14:35:00</v>
       </c>
       <c r="B120">
         <v>25</v>
       </c>
       <c r="C120">
-        <v>36.4</v>
+        <v>34.52</v>
       </c>
       <c r="D120">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E120">
         <v>0.01</v>
@@ -3697,27 +3697,27 @@
         <v>0.01</v>
       </c>
       <c r="G120">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H120">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="I120">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-11 00:34:32</v>
+        <v>2023-10-13 19:45:56</v>
       </c>
       <c r="B121">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C121">
-        <v>36.4</v>
+        <v>34.52</v>
       </c>
       <c r="D121">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E121">
         <v>0.01</v>
@@ -3726,27 +3726,27 @@
         <v>0.01</v>
       </c>
       <c r="G121">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H121">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="I121">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-11 05:45:56</v>
+        <v>2023-10-14 00:55:07</v>
       </c>
       <c r="B122">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C122">
-        <v>36.4</v>
+        <v>34.52</v>
       </c>
       <c r="D122">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E122">
         <v>0.01</v>
@@ -3755,27 +3755,27 @@
         <v>0.01</v>
       </c>
       <c r="G122">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="I122">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 10:54:40</v>
+        <v>2023-10-14 05:58:40</v>
       </c>
       <c r="B123">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C123">
-        <v>36.4</v>
+        <v>33.6</v>
       </c>
       <c r="D123">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E123">
         <v>0.01</v>
@@ -3784,27 +3784,27 @@
         <v>0.01</v>
       </c>
       <c r="G123">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="I123">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 16:04:39</v>
+        <v>2023-10-14 11:11:55</v>
       </c>
       <c r="B124">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C124">
-        <v>36.4</v>
+        <v>33.6</v>
       </c>
       <c r="D124">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E124">
         <v>0.01</v>
@@ -3813,27 +3813,27 @@
         <v>0.01</v>
       </c>
       <c r="G124">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="I124">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-11 21:14:40</v>
+        <v>2023-10-14 16:18:48</v>
       </c>
       <c r="B125">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C125">
-        <v>36.4</v>
+        <v>33.6</v>
       </c>
       <c r="D125">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E125">
         <v>0.01</v>
@@ -3845,7 +3845,7 @@
         <v>29</v>
       </c>
       <c r="H125">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="I125">
         <v>17</v>
@@ -3853,13 +3853,13 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-12 02:27:06</v>
+        <v>2023-10-14 21:28:48</v>
       </c>
       <c r="B126">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C126">
-        <v>34.52</v>
+        <v>33.6</v>
       </c>
       <c r="D126">
         <v>120</v>
@@ -3871,27 +3871,27 @@
         <v>0.01</v>
       </c>
       <c r="G126">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="I126">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-12 07:34:45</v>
+        <v>2023-10-15 02:38:48</v>
       </c>
       <c r="B127">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C127">
-        <v>34.52</v>
+        <v>33.93</v>
       </c>
       <c r="D127">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E127">
         <v>0.01</v>
@@ -3900,27 +3900,27 @@
         <v>0.01</v>
       </c>
       <c r="G127">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="I127">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 12:44:45</v>
+        <v>2023-10-15 07:48:48</v>
       </c>
       <c r="B128">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C128">
-        <v>34.52</v>
+        <v>33.93</v>
       </c>
       <c r="D128">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E128">
         <v>0.01</v>
@@ -3929,27 +3929,27 @@
         <v>0.01</v>
       </c>
       <c r="G128">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H128">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="I128">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 17:54:45</v>
+        <v>2023-10-15 12:58:50</v>
       </c>
       <c r="B129">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="C129">
-        <v>34.52</v>
+        <v>33.93</v>
       </c>
       <c r="D129">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E129">
         <v>0.01</v>
@@ -3958,27 +3958,27 @@
         <v>0.01</v>
       </c>
       <c r="G129">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="I129">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-12 23:04:43</v>
+        <v>2023-10-15 18:08:54</v>
       </c>
       <c r="B130">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C130">
-        <v>34.52</v>
+        <v>33.93</v>
       </c>
       <c r="D130">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E130">
         <v>0.01</v>
@@ -3990,24 +3990,24 @@
         <v>29</v>
       </c>
       <c r="H130">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="I130">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-13 04:14:58</v>
+        <v>2023-10-15 23:18:54</v>
       </c>
       <c r="B131">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C131">
-        <v>34.52</v>
+        <v>33.93</v>
       </c>
       <c r="D131">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E131">
         <v>0.01</v>
@@ -4016,24 +4016,24 @@
         <v>0.01</v>
       </c>
       <c r="G131">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H131">
         <v>23.7</v>
       </c>
       <c r="I131">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-13 09:25:02</v>
+        <v>2023-10-16 04:28:54</v>
       </c>
       <c r="B132">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C132">
-        <v>34.52</v>
+        <v>33.22</v>
       </c>
       <c r="D132">
         <v>121</v>
@@ -4045,27 +4045,27 @@
         <v>0.01</v>
       </c>
       <c r="G132">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H132">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="I132">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 14:35:00</v>
+        <v>2023-10-16 09:38:55</v>
       </c>
       <c r="B133">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C133">
-        <v>34.52</v>
+        <v>33.22</v>
       </c>
       <c r="D133">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E133">
         <v>0.01</v>
@@ -4074,27 +4074,27 @@
         <v>0.01</v>
       </c>
       <c r="G133">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H133">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="I133">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-13 19:45:56</v>
+        <v>2023-10-16 14:48:55</v>
       </c>
       <c r="B134">
-        <v>24.9</v>
+        <v>24</v>
       </c>
       <c r="C134">
-        <v>34.52</v>
+        <v>33.22</v>
       </c>
       <c r="D134">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E134">
         <v>0.01</v>
@@ -4106,24 +4106,24 @@
         <v>29</v>
       </c>
       <c r="H134">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="I134">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-14 00:55:07</v>
+        <v>2023-10-16 19:58:49</v>
       </c>
       <c r="B135">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="C135">
-        <v>34.52</v>
+        <v>33.22</v>
       </c>
       <c r="D135">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E135">
         <v>0.01</v>
@@ -4132,27 +4132,27 @@
         <v>0.01</v>
       </c>
       <c r="G135">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="I135">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-14 05:58:40</v>
+        <v>2023-10-17 01:08:47</v>
       </c>
       <c r="B136">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="C136">
-        <v>33.6</v>
+        <v>33.22</v>
       </c>
       <c r="D136">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E136">
         <v>0.01</v>
@@ -4164,24 +4164,24 @@
         <v>30</v>
       </c>
       <c r="H136">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="I136">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 11:11:55</v>
+        <v>2023-10-17 06:19:18</v>
       </c>
       <c r="B137">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="C137">
-        <v>33.6</v>
+        <v>32.5</v>
       </c>
       <c r="D137">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E137">
         <v>0.01</v>
@@ -4193,24 +4193,24 @@
         <v>30</v>
       </c>
       <c r="H137">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="I137">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 16:18:48</v>
+        <v>2023-10-17 11:28:55</v>
       </c>
       <c r="B138">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="C138">
-        <v>33.6</v>
+        <v>32.5</v>
       </c>
       <c r="D138">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E138">
         <v>0.01</v>
@@ -4219,27 +4219,27 @@
         <v>0.01</v>
       </c>
       <c r="G138">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H138">
-        <v>24.3</v>
+        <v>23.3</v>
       </c>
       <c r="I138">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-14 21:28:48</v>
+        <v>2023-10-17 16:38:53</v>
       </c>
       <c r="B139">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="C139">
-        <v>33.6</v>
+        <v>32.5</v>
       </c>
       <c r="D139">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E139">
         <v>0.01</v>
@@ -4248,27 +4248,27 @@
         <v>0.01</v>
       </c>
       <c r="G139">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H139">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="I139">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-15 02:38:48</v>
+        <v>2023-10-17 21:48:53</v>
       </c>
       <c r="B140">
-        <v>24.8</v>
+        <v>24</v>
       </c>
       <c r="C140">
-        <v>33.93</v>
+        <v>32.5</v>
       </c>
       <c r="D140">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E140">
         <v>0.01</v>
@@ -4277,27 +4277,27 @@
         <v>0.01</v>
       </c>
       <c r="G140">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>24.2</v>
+        <v>23.4</v>
       </c>
       <c r="I140">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-15 07:48:48</v>
+        <v>2023-10-18 03:00:32</v>
       </c>
       <c r="B141">
         <v>24.8</v>
       </c>
       <c r="C141">
-        <v>33.93</v>
+        <v>35.29</v>
       </c>
       <c r="D141">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E141">
         <v>0.01</v>
@@ -4306,10 +4306,10 @@
         <v>0.01</v>
       </c>
       <c r="G141">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="I141">
         <v>15</v>
@@ -4317,16 +4317,16 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 12:58:50</v>
+        <v>2023-10-18 08:09:00</v>
       </c>
       <c r="B142">
         <v>24.8</v>
       </c>
       <c r="C142">
-        <v>33.93</v>
+        <v>35.29</v>
       </c>
       <c r="D142">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E142">
         <v>0.01</v>
@@ -4335,27 +4335,27 @@
         <v>0.01</v>
       </c>
       <c r="G142">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="I142">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 18:08:54</v>
+        <v>2023-10-18 13:19:00</v>
       </c>
       <c r="B143">
         <v>24.7</v>
       </c>
       <c r="C143">
-        <v>33.93</v>
+        <v>35.29</v>
       </c>
       <c r="D143">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E143">
         <v>0.01</v>
@@ -4367,24 +4367,24 @@
         <v>29</v>
       </c>
       <c r="H143">
-        <v>23.7</v>
+        <v>19.2</v>
       </c>
       <c r="I143">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-15 23:18:54</v>
+        <v>2023-10-18 18:30:30</v>
       </c>
       <c r="B144">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="C144">
-        <v>33.93</v>
+        <v>35.29</v>
       </c>
       <c r="D144">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E144">
         <v>0.01</v>
@@ -4393,27 +4393,27 @@
         <v>0.01</v>
       </c>
       <c r="G144">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>23.7</v>
+        <v>19.6</v>
       </c>
       <c r="I144">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-16 04:28:54</v>
+        <v>2023-10-18 23:39:08</v>
       </c>
       <c r="B145">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="C145">
-        <v>33.22</v>
+        <v>35.29</v>
       </c>
       <c r="D145">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E145">
         <v>0.01</v>
@@ -4422,10 +4422,10 @@
         <v>0.01</v>
       </c>
       <c r="G145">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>23.3</v>
+        <v>19.7</v>
       </c>
       <c r="I145">
         <v>16</v>
@@ -4433,16 +4433,16 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-16 09:38:55</v>
+        <v>2023-10-19 04:49:08</v>
       </c>
       <c r="B146">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="C146">
-        <v>33.22</v>
+        <v>35.61</v>
       </c>
       <c r="D146">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E146">
         <v>0.01</v>
@@ -4451,10 +4451,10 @@
         <v>0.01</v>
       </c>
       <c r="G146">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H146">
-        <v>23.3</v>
+        <v>19.7</v>
       </c>
       <c r="I146">
         <v>15</v>
